--- a/NovaSpark/Assets/Excel/FarmingSheet.xlsx
+++ b/NovaSpark/Assets/Excel/FarmingSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57cb915db9a5dbd7/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkPlace\NovaSpark\NovaSpark\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F189920F-F428-43DB-8149-CCF7635FF1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07676F8D-B65F-4B2E-9432-A0E8D4C8ADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="1950" windowWidth="21600" windowHeight="12195" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FarmingData" sheetId="1" r:id="rId1"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10 | 10 | 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3204|2213|2204</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,11 +187,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20 | 10 | 30|10</t>
+    <t>30 | 15 | 30 | 10 | 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30 | 15 | 30 | 10 | 10</t>
+    <t>10 | 8 | 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 | 10 | 30|8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,10 +305,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,21 +508,21 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="26.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" customWidth="1"/>
+    <col min="9" max="9" width="20.73046875" customWidth="1"/>
+    <col min="10" max="10" width="17.73046875" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" customWidth="1"/>
+    <col min="13" max="13" width="21.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27.4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -608,7 +604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -649,7 +645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>150001</v>
       </c>
@@ -690,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>150002</v>
       </c>
@@ -719,7 +715,7 @@
         <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" s="1">
         <v>60</v>
@@ -731,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>150003</v>
       </c>
@@ -754,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K6" s="3">
         <v>60</v>
@@ -772,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>150004</v>
       </c>
@@ -795,13 +791,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="3">
         <v>60</v>
@@ -813,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -828,7 +824,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -843,7 +839,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -858,7 +854,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -873,7 +869,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -888,7 +884,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -903,7 +899,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -918,7 +914,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -933,7 +929,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -948,7 +944,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -963,7 +959,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -978,7 +974,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -993,7 +989,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1008,7 +1004,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1023,7 +1019,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1038,7 +1034,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1053,7 +1049,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1068,7 +1064,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1083,7 +1079,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1098,7 +1094,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1113,7 +1109,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1128,7 +1124,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1143,7 +1139,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1158,7 +1154,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1173,7 +1169,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1188,7 +1184,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1203,7 +1199,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1218,7 +1214,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
